--- a/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.95</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.52</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0568</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>59.88</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006567</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中泰星元价值优选灵活配置混合</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.29</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0387</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.79</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>006567</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中泰星元价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0364</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7769</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.29</v>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7375</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.99</v>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.92</v>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1376,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.5</v>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.29</v>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1482,14 +1547,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.99</v>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1498,14 +1585,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.92</v>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1514,13 +1623,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.85</v>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1862,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
@@ -1745,14 +1878,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.99</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="6">
@@ -1761,14 +1894,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="7">
@@ -1777,13 +1910,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚价值领航混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0568</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>59.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6009</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.66</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>160211</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>国泰中小盘成长混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.79</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0387</t>
+          <t>0.2157</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -678,112 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>165531</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>信诚多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>81.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6261</t>
+          <t>0.0167</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006567</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1975</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006624</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中泰玉衡价值优选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -848,36 +788,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>010861</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>长信企业优选一年持有期灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.03</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>80.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0364</t>
+          <t>0.3512</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -886,36 +826,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>160211</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>国泰中小盘成长混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.83</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.86</t>
+          <t>89.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6145</t>
+          <t>0.2488</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -924,36 +864,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006567</t>
+          <t>005589</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰星元价值优选灵活配置混合</t>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>79.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2563</t>
+          <t>0.2143</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -962,36 +902,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>72.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0855</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1004,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1066,26 +1044,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.71</t>
+          <t>26.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.26</t>
+          <t>83.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7769</t>
+          <t>0.7375</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1094,36 +1072,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006567</t>
+          <t>010861</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰星元价值优选灵活配置混合</t>
+          <t>长信企业优选一年持有期灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.73</t>
+          <t>59.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3502</t>
+          <t>0.3588</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1132,36 +1110,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>005589</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.32</t>
+          <t>63.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1600</t>
+          <t>0.2182</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1170,36 +1148,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001068</t>
+          <t>519971</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华融新锐灵活配置混合</t>
+          <t>长信改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.45</t>
+          <t>38.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.1824</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1212,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1274,26 +1252,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.72</t>
+          <t>31.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.04</t>
+          <t>80.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7375</t>
+          <t>0.7769</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1302,36 +1280,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010861</t>
+          <t>006567</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长信企业优选一年持有期灵活配置混合</t>
+          <t>中泰星元价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.04</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>59.14</t>
+          <t>79.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3588</t>
+          <t>0.3502</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1340,36 +1318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005589</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>63.94</t>
+          <t>80.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2182</t>
+          <t>0.1600</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1378,36 +1356,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519971</t>
+          <t>001068</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信改革红利灵活配置混合</t>
+          <t>华融新锐灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38.11</t>
+          <t>25.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1824</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +1399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,7 +1420,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1472,36 +1450,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010861</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长信企业优选一年持有期灵活配置混合</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>23.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.21</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3512</t>
+          <t>1.0364</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1510,36 +1488,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160211</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中小盘成长混合(LOF)</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>20.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>78.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2488</t>
+          <t>0.6145</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1548,36 +1526,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005589</t>
+          <t>006567</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
+          <t>中泰星元价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.99</t>
+          <t>80.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2143</t>
+          <t>0.2563</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1586,74 +1564,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.64</t>
+          <t>81.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0855</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007519</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>72.64</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1667,7 +1607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1688,7 +1628,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1718,36 +1658,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160211</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰中小盘成长混合(LOF)</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2157</t>
+          <t>1.0387</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1756,36 +1696,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>165531</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信诚多策略灵活配置混合（LOF）</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>59.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0167</t>
+          <t>0.6261</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1799,144 +1815,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0568</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.66</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603558-健盛集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.99</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.66</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014750</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>56.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -970,214 +1195,6 @@
       </c>
       <c r="H6" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>26.72</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7375</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010861</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长信企业优选一年持有期灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>59.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3588</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005589</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2182</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519971</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>38.11</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1824</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1229,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1252,26 +1269,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.71</t>
+          <t>26.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.26</t>
+          <t>83.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7769</t>
+          <t>0.7375</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1280,36 +1297,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006567</t>
+          <t>010861</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中泰星元价值优选灵活配置混合</t>
+          <t>长信企业优选一年持有期灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.73</t>
+          <t>59.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3502</t>
+          <t>0.3588</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1318,36 +1335,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>005589</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.32</t>
+          <t>63.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1600</t>
+          <t>0.2182</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1356,36 +1373,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001068</t>
+          <t>519971</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华融新锐灵活配置混合</t>
+          <t>长信改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.45</t>
+          <t>38.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.1824</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1450,36 +1467,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.03</t>
+          <t>31.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>80.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0364</t>
+          <t>0.7769</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1488,36 +1505,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>006567</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中泰星元价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.83</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.86</t>
+          <t>79.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6145</t>
+          <t>0.3502</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1526,36 +1543,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006567</t>
+          <t>006624</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰星元价值优选灵活配置混合</t>
+          <t>中泰玉衡价值优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>80.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2563</t>
+          <t>0.1600</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1564,36 +1581,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006624</t>
+          <t>001068</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中泰玉衡价值优选混合</t>
+          <t>华融新锐灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>25.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0855</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1668,26 +1685,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.79</t>
+          <t>23.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0387</t>
+          <t>1.0364</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1706,26 +1723,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>20.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>78.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6261</t>
+          <t>0.6145</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1744,26 +1761,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.29</t>
+          <t>80.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1975</t>
+          <t>0.2563</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1782,26 +1799,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.79</t>
+          <t>81.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0597</t>
+          <t>0.0855</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1810,6 +1827,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0387</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
